--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Ptprb</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H2">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I2">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J2">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.1010320735521</v>
+        <v>123.4014646666667</v>
       </c>
       <c r="N2">
-        <v>19.1010320735521</v>
+        <v>370.204394</v>
       </c>
       <c r="O2">
-        <v>0.9211142309291709</v>
+        <v>0.9838440244846903</v>
       </c>
       <c r="P2">
-        <v>0.9211142309291709</v>
+        <v>0.9838440244846903</v>
       </c>
       <c r="Q2">
-        <v>2234.52283481092</v>
+        <v>245.7273210334771</v>
       </c>
       <c r="R2">
-        <v>2234.52283481092</v>
+        <v>2211.545889301294</v>
       </c>
       <c r="S2">
-        <v>0.6505843898233777</v>
+        <v>0.01122412422367833</v>
       </c>
       <c r="T2">
-        <v>0.6505843898233777</v>
+        <v>0.01122412422367833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H3">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I3">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J3">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.966323564134404</v>
+        <v>1.025352333333333</v>
       </c>
       <c r="N3">
-        <v>0.966323564134404</v>
+        <v>3.076057</v>
       </c>
       <c r="O3">
-        <v>0.04659928234133746</v>
+        <v>0.008174836245796433</v>
       </c>
       <c r="P3">
-        <v>0.04659928234133746</v>
+        <v>0.008174836245796433</v>
       </c>
       <c r="Q3">
-        <v>113.0447853058159</v>
+        <v>2.041767353945223</v>
       </c>
       <c r="R3">
-        <v>113.0447853058159</v>
+        <v>18.375906185507</v>
       </c>
       <c r="S3">
-        <v>0.03291314437479095</v>
+        <v>9.326211802638764E-05</v>
       </c>
       <c r="T3">
-        <v>0.03291314437479095</v>
+        <v>9.326211802638763E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>116.984403052488</v>
+        <v>1.991283666666667</v>
       </c>
       <c r="H4">
-        <v>116.984403052488</v>
+        <v>5.973851</v>
       </c>
       <c r="I4">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="J4">
-        <v>0.7063015291459593</v>
+        <v>0.01140843867965475</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.669520888782967</v>
+        <v>1.001057333333333</v>
       </c>
       <c r="N4">
-        <v>0.669520888782967</v>
+        <v>3.003172</v>
       </c>
       <c r="O4">
-        <v>0.03228648672949182</v>
+        <v>0.007981139269513202</v>
       </c>
       <c r="P4">
-        <v>0.03228648672949182</v>
+        <v>0.0079811392695132</v>
       </c>
       <c r="Q4">
-        <v>78.32350150544661</v>
+        <v>1.993389117263556</v>
       </c>
       <c r="R4">
-        <v>78.32350150544661</v>
+        <v>17.940502055372</v>
       </c>
       <c r="S4">
-        <v>0.0228039949477908</v>
+        <v>9.105233795002586E-05</v>
       </c>
       <c r="T4">
-        <v>0.0228039949477908</v>
+        <v>9.105233795002583E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.6451449876279</v>
+        <v>123.027733</v>
       </c>
       <c r="H5">
-        <v>48.6451449876279</v>
+        <v>369.083199</v>
       </c>
       <c r="I5">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="J5">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.1010320735521</v>
+        <v>123.4014646666667</v>
       </c>
       <c r="N5">
-        <v>19.1010320735521</v>
+        <v>370.204394</v>
       </c>
       <c r="O5">
-        <v>0.9211142309291709</v>
+        <v>0.9838440244846903</v>
       </c>
       <c r="P5">
-        <v>0.9211142309291709</v>
+        <v>0.9838440244846903</v>
       </c>
       <c r="Q5">
-        <v>929.1724746312727</v>
+        <v>15181.8024468196</v>
       </c>
       <c r="R5">
-        <v>929.1724746312727</v>
+        <v>136636.2220213764</v>
       </c>
       <c r="S5">
-        <v>0.2705298411057931</v>
+        <v>0.693461499868107</v>
       </c>
       <c r="T5">
-        <v>0.2705298411057931</v>
+        <v>0.693461499868107</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.6451449876279</v>
+        <v>123.027733</v>
       </c>
       <c r="H6">
-        <v>48.6451449876279</v>
+        <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="J6">
-        <v>0.2936984708540406</v>
+        <v>0.7048490234326753</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.966323564134404</v>
+        <v>1.025352333333333</v>
       </c>
       <c r="N6">
-        <v>0.966323564134404</v>
+        <v>3.076057</v>
       </c>
       <c r="O6">
-        <v>0.04659928234133746</v>
+        <v>0.008174836245796433</v>
       </c>
       <c r="P6">
-        <v>0.04659928234133746</v>
+        <v>0.008174836245796433</v>
       </c>
       <c r="Q6">
-        <v>47.00694988227943</v>
+        <v>126.1467730962603</v>
       </c>
       <c r="R6">
-        <v>47.00694988227943</v>
+        <v>1135.320957866343</v>
       </c>
       <c r="S6">
-        <v>0.01368613796654651</v>
+        <v>0.005762025344571654</v>
       </c>
       <c r="T6">
-        <v>0.01368613796654651</v>
+        <v>0.005762025344571654</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>123.027733</v>
+      </c>
+      <c r="H7">
+        <v>369.083199</v>
+      </c>
+      <c r="I7">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="J7">
+        <v>0.7048490234326753</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.001057333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.003172</v>
+      </c>
+      <c r="O7">
+        <v>0.007981139269513202</v>
+      </c>
+      <c r="P7">
+        <v>0.0079811392695132</v>
+      </c>
+      <c r="Q7">
+        <v>123.1578143230253</v>
+      </c>
+      <c r="R7">
+        <v>1108.420328907228</v>
+      </c>
+      <c r="S7">
+        <v>0.005625498219996555</v>
+      </c>
+      <c r="T7">
+        <v>0.005625498219996554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.037411</v>
+      </c>
+      <c r="H8">
+        <v>0.112233</v>
+      </c>
+      <c r="I8">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J8">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>123.4014646666667</v>
+      </c>
+      <c r="N8">
+        <v>370.204394</v>
+      </c>
+      <c r="O8">
+        <v>0.9838440244846903</v>
+      </c>
+      <c r="P8">
+        <v>0.9838440244846903</v>
+      </c>
+      <c r="Q8">
+        <v>4.616572194644666</v>
+      </c>
+      <c r="R8">
+        <v>41.549149751802</v>
+      </c>
+      <c r="S8">
+        <v>0.0002108718704226286</v>
+      </c>
+      <c r="T8">
+        <v>0.0002108718704226286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.037411</v>
+      </c>
+      <c r="H9">
+        <v>0.112233</v>
+      </c>
+      <c r="I9">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J9">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.025352333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.076057</v>
+      </c>
+      <c r="O9">
+        <v>0.008174836245796433</v>
+      </c>
+      <c r="P9">
+        <v>0.008174836245796433</v>
+      </c>
+      <c r="Q9">
+        <v>0.03835945614233334</v>
+      </c>
+      <c r="R9">
+        <v>0.345235105281</v>
+      </c>
+      <c r="S9">
+        <v>1.752150713577484E-06</v>
+      </c>
+      <c r="T9">
+        <v>1.752150713577484E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.037411</v>
+      </c>
+      <c r="H10">
+        <v>0.112233</v>
+      </c>
+      <c r="I10">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="J10">
+        <v>0.0002143346558750279</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.001057333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.003172</v>
+      </c>
+      <c r="O10">
+        <v>0.007981139269513202</v>
+      </c>
+      <c r="P10">
+        <v>0.0079811392695132</v>
+      </c>
+      <c r="Q10">
+        <v>0.03745055589733334</v>
+      </c>
+      <c r="R10">
+        <v>0.337055003076</v>
+      </c>
+      <c r="S10">
+        <v>1.710634738821784E-06</v>
+      </c>
+      <c r="T10">
+        <v>1.710634738821784E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>49.488374</v>
+      </c>
+      <c r="H11">
+        <v>148.465122</v>
+      </c>
+      <c r="I11">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J11">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>123.4014646666667</v>
+      </c>
+      <c r="N11">
+        <v>370.204394</v>
+      </c>
+      <c r="O11">
+        <v>0.9838440244846903</v>
+      </c>
+      <c r="P11">
+        <v>0.9838440244846903</v>
+      </c>
+      <c r="Q11">
+        <v>6106.937835571784</v>
+      </c>
+      <c r="R11">
+        <v>54962.44052014607</v>
+      </c>
+      <c r="S11">
+        <v>0.2789475285224823</v>
+      </c>
+      <c r="T11">
+        <v>0.2789475285224823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>48.6451449876279</v>
-      </c>
-      <c r="H7">
-        <v>48.6451449876279</v>
-      </c>
-      <c r="I7">
-        <v>0.2936984708540406</v>
-      </c>
-      <c r="J7">
-        <v>0.2936984708540406</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.669520888782967</v>
-      </c>
-      <c r="N7">
-        <v>0.669520888782967</v>
-      </c>
-      <c r="O7">
-        <v>0.03228648672949182</v>
-      </c>
-      <c r="P7">
-        <v>0.03228648672949182</v>
-      </c>
-      <c r="Q7">
-        <v>32.56894070709293</v>
-      </c>
-      <c r="R7">
-        <v>32.56894070709293</v>
-      </c>
-      <c r="S7">
-        <v>0.009482491781701022</v>
-      </c>
-      <c r="T7">
-        <v>0.009482491781701022</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>49.488374</v>
+      </c>
+      <c r="H12">
+        <v>148.465122</v>
+      </c>
+      <c r="I12">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J12">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.025352333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.076057</v>
+      </c>
+      <c r="O12">
+        <v>0.008174836245796433</v>
+      </c>
+      <c r="P12">
+        <v>0.008174836245796433</v>
+      </c>
+      <c r="Q12">
+        <v>50.74301975377267</v>
+      </c>
+      <c r="R12">
+        <v>456.687177783954</v>
+      </c>
+      <c r="S12">
+        <v>0.002317796632484814</v>
+      </c>
+      <c r="T12">
+        <v>0.002317796632484814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>49.488374</v>
+      </c>
+      <c r="H13">
+        <v>148.465122</v>
+      </c>
+      <c r="I13">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="J13">
+        <v>0.2835282032317949</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.001057333333333</v>
+      </c>
+      <c r="N13">
+        <v>3.003172</v>
+      </c>
+      <c r="O13">
+        <v>0.007981139269513202</v>
+      </c>
+      <c r="P13">
+        <v>0.0079811392695132</v>
+      </c>
+      <c r="Q13">
+        <v>49.54069970744268</v>
+      </c>
+      <c r="R13">
+        <v>445.866297366984</v>
+      </c>
+      <c r="S13">
+        <v>0.002262878076827798</v>
+      </c>
+      <c r="T13">
+        <v>0.002262878076827797</v>
       </c>
     </row>
   </sheetData>
